--- a/data/stat probs/saben lee stat probs - condition.xlsx
+++ b/data/stat probs/saben lee stat probs - condition.xlsx
@@ -19,20 +19,20 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27 after 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27 after 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lal 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sas 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27 after 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27 after 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="okc 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="27 before 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
@@ -569,28 +569,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -1467,28 +1467,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -3263,28 +3263,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -4093,1802 +4093,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>67</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>67</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33</v>
-      </c>
-      <c r="I5" t="n">
-        <v>33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>67</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>67</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>33</v>
-      </c>
-      <c r="H8" t="n">
-        <v>67</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>67</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>67</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>67</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>33</v>
-      </c>
-      <c r="H11" t="n">
-        <v>67</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>33</v>
-      </c>
-      <c r="H12" t="n">
-        <v>67</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>33</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>33</v>
-      </c>
-      <c r="D15" t="n">
-        <v>67</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>33</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>33</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>33</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>33</v>
-      </c>
-      <c r="D19" t="n">
-        <v>67</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>33</v>
-      </c>
-      <c r="D20" t="n">
-        <v>67</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>33</v>
-      </c>
-      <c r="D21" t="n">
-        <v>67</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>33</v>
-      </c>
-      <c r="D22" t="n">
-        <v>67</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>33</v>
-      </c>
-      <c r="D23" t="n">
-        <v>67</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>33</v>
-      </c>
-      <c r="D24" t="n">
-        <v>67</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>33</v>
-      </c>
-      <c r="D25" t="n">
-        <v>67</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>33</v>
-      </c>
-      <c r="D26" t="n">
-        <v>67</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>33</v>
-      </c>
-      <c r="D27" t="n">
-        <v>67</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>67</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>67</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33</v>
-      </c>
-      <c r="I5" t="n">
-        <v>33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>67</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33</v>
-      </c>
-      <c r="H7" t="n">
-        <v>67</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>67</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>33</v>
-      </c>
-      <c r="H8" t="n">
-        <v>67</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>33</v>
-      </c>
-      <c r="H9" t="n">
-        <v>67</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33</v>
-      </c>
-      <c r="H10" t="n">
-        <v>67</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33</v>
-      </c>
-      <c r="D11" t="n">
-        <v>67</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>33</v>
-      </c>
-      <c r="H11" t="n">
-        <v>67</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>33</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>33</v>
-      </c>
-      <c r="H12" t="n">
-        <v>67</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>33</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>33</v>
-      </c>
-      <c r="D14" t="n">
-        <v>67</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>33</v>
-      </c>
-      <c r="D15" t="n">
-        <v>67</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>33</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>33</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>33</v>
-      </c>
-      <c r="D18" t="n">
-        <v>67</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>33</v>
-      </c>
-      <c r="D19" t="n">
-        <v>67</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>33</v>
-      </c>
-      <c r="D20" t="n">
-        <v>67</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>33</v>
-      </c>
-      <c r="D21" t="n">
-        <v>67</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>33</v>
-      </c>
-      <c r="D22" t="n">
-        <v>67</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>33</v>
-      </c>
-      <c r="D23" t="n">
-        <v>67</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>33</v>
-      </c>
-      <c r="D24" t="n">
-        <v>67</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
-        <v>33</v>
-      </c>
-      <c r="D25" t="n">
-        <v>67</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>100</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>100</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>33</v>
-      </c>
-      <c r="D26" t="n">
-        <v>67</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>100</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="n">
-        <v>33</v>
-      </c>
-      <c r="D27" t="n">
-        <v>67</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>100</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>100</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5957,28 +4161,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6274,7 +4478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6343,28 +4547,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6652,6 +4856,1162 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91</v>
+      </c>
+      <c r="I2" t="n">
+        <v>73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" t="n">
+        <v>64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>82</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>82</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>55</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>82</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>73</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>91</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>91</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>91</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>91</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>91</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>91</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>73</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>91</v>
+      </c>
+      <c r="I2" t="n">
+        <v>73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>91</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>82</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45</v>
+      </c>
+      <c r="E5" t="n">
+        <v>55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" t="n">
+        <v>64</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>82</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>64</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>18</v>
+      </c>
+      <c r="H7" t="n">
+        <v>82</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>55</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" t="n">
+        <v>82</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" t="n">
+        <v>73</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>82</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>91</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>91</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>91</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>91</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>91</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>91</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -6729,28 +6089,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -6761,28 +6121,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -6793,28 +6153,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -6825,22 +6185,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -6857,22 +6217,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -6889,10 +6249,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -6901,10 +6261,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -6921,10 +6281,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -6933,10 +6293,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6953,10 +6313,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -6985,10 +6345,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7017,10 +6377,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7049,10 +6409,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7081,10 +6441,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7113,10 +6473,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7145,10 +6505,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7177,10 +6537,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7209,10 +6569,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7307,28 +6667,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -7339,28 +6699,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -7371,28 +6731,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -7403,22 +6763,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -7435,22 +6795,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -7467,10 +6827,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -7479,10 +6839,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -7499,10 +6859,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -7511,10 +6871,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -7531,10 +6891,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -7563,10 +6923,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7595,10 +6955,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7627,10 +6987,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7659,10 +7019,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7691,10 +7051,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7723,10 +7083,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7755,10 +7115,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7787,10 +7147,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7822,7 +7182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7885,28 +7245,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -7917,28 +7277,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7309,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G4" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -7981,22 +7341,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -8013,22 +7373,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -8045,10 +7405,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -8057,10 +7417,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -8077,10 +7437,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -8089,10 +7449,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -8109,10 +7469,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -8130,262 +7490,6 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" t="n">
-        <v>40</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8463,28 +7567,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -9293,584 +8397,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>80</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>60</v>
-      </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>80</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>80</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40</v>
-      </c>
-      <c r="F5" t="n">
-        <v>60</v>
-      </c>
-      <c r="G5" t="n">
-        <v>60</v>
-      </c>
-      <c r="H5" t="n">
-        <v>40</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>80</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40</v>
-      </c>
-      <c r="H6" t="n">
-        <v>60</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
-        <v>80</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
-        <v>80</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" t="n">
-        <v>40</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" t="n">
-        <v>40</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20</v>
-      </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D16" t="n">
-        <v>80</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9939,28 +8465,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10184,6 +8710,488 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>60</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10193,6 +9201,748 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80</v>
+      </c>
+      <c r="J2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>80</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20</v>
+      </c>
+      <c r="J3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>60</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" t="n">
+        <v>80</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" t="n">
+        <v>80</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>60</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10261,22 +10011,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10299,22 +10049,22 @@
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -10331,10 +10081,10 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>50</v>
@@ -10357,16 +10107,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
         <v>50</v>
@@ -10389,22 +10139,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -10421,10 +10171,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -10433,10 +10183,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -10453,10 +10203,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -10465,10 +10215,10 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -10485,10 +10235,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10506,1100 +10256,6 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>80</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>80</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>80</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40</v>
-      </c>
-      <c r="H5" t="n">
-        <v>60</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>80</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>60</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
-        <v>80</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>80</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>80</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>80</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" t="n">
-        <v>80</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40</v>
-      </c>
-      <c r="H5" t="n">
-        <v>60</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H6" t="n">
-        <v>80</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>60</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="n">
-        <v>80</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" t="n">
-        <v>60</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>60</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>40</v>
-      </c>
-      <c r="D12" t="n">
-        <v>60</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11614,7 +10270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11677,22 +10333,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11709,27 +10365,219 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>100</v>
       </c>
     </row>
@@ -11807,16 +10655,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -11969,16 +10817,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12131,16 +10979,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -12293,28 +11141,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -13191,16 +12039,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13353,16 +12201,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13515,16 +12363,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -13689,10 +12537,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13819,10 +12667,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13949,10 +12797,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14079,10 +12927,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14209,10 +13057,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14339,10 +13187,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14457,16 +13305,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -14683,28 +13531,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -15581,16 +14429,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15807,10 +14655,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -15819,10 +14667,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16129,10 +14977,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -16141,10 +14989,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16451,10 +15299,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -16463,10 +15311,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -16773,10 +15621,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -16785,10 +15633,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17095,28 +15943,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17577,28 +16425,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -18059,22 +16907,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18221,22 +17069,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18383,22 +17231,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18641,28 +17489,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -19123,22 +17971,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19381,22 +18229,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -19767,22 +18615,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20153,28 +19001,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20635,28 +19483,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -21117,28 +19965,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21695,28 +20543,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -22273,22 +21121,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22531,22 +21379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22789,10 +21637,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -22801,16 +21649,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23111,28 +21959,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -23593,10 +22441,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -23605,16 +22453,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23915,22 +22763,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24077,22 +22925,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24435,22 +23283,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24725,22 +23573,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25015,28 +23863,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25433,28 +24281,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25851,22 +24699,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26333,28 +25181,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -27231,22 +26079,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27713,22 +26561,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28067,22 +26915,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28421,22 +27269,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28775,22 +27623,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29129,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -29355,10 +28203,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -29581,10 +28429,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -29807,10 +28655,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -30033,10 +28881,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -30045,10 +28893,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -30195,28 +29043,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31093,10 +29941,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -31105,10 +29953,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31255,10 +30103,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -31267,10 +30115,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31417,10 +30265,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -31429,10 +30277,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -31579,28 +30427,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
